--- a/Data Files/Excel Files/registerUsers.xlsx
+++ b/Data Files/Excel Files/registerUsers.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janine.bautista\git\API_UCF88\Data Files\Excel Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lianne.n.c.gerardo\git\API_UCF88\Data Files\Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{31A8A024-6F0B-4527-88ED-C0C6306E0F73}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24765" windowHeight="9285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24768" windowHeight="9288" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="206">
   <si>
     <t>signUp_username</t>
   </si>
@@ -642,312 +643,12 @@
   </si>
   <si>
     <t>testUser2@gmail.com</t>
-  </si>
-  <si>
-    <t>testUser 1</t>
-  </si>
-  <si>
-    <t>testUser 2</t>
-  </si>
-  <si>
-    <t>testUser 3</t>
-  </si>
-  <si>
-    <t>testUser 4</t>
-  </si>
-  <si>
-    <t>testUser 5</t>
-  </si>
-  <si>
-    <t>testUser 6</t>
-  </si>
-  <si>
-    <t>testUser 7</t>
-  </si>
-  <si>
-    <t>testUser 8</t>
-  </si>
-  <si>
-    <t>testUser 9</t>
-  </si>
-  <si>
-    <t>testUser 10</t>
-  </si>
-  <si>
-    <t>testUser 11</t>
-  </si>
-  <si>
-    <t>testUser 12</t>
-  </si>
-  <si>
-    <t>testUser 13</t>
-  </si>
-  <si>
-    <t>testUser 14</t>
-  </si>
-  <si>
-    <t>testUser 15</t>
-  </si>
-  <si>
-    <t>testUser 16</t>
-  </si>
-  <si>
-    <t>testUser 17</t>
-  </si>
-  <si>
-    <t>testUser 18</t>
-  </si>
-  <si>
-    <t>testUser 19</t>
-  </si>
-  <si>
-    <t>testUser 20</t>
-  </si>
-  <si>
-    <t>testUser 21</t>
-  </si>
-  <si>
-    <t>testUser 22</t>
-  </si>
-  <si>
-    <t>testUser 23</t>
-  </si>
-  <si>
-    <t>testUser 24</t>
-  </si>
-  <si>
-    <t>testUser 25</t>
-  </si>
-  <si>
-    <t>testUser 26</t>
-  </si>
-  <si>
-    <t>testUser 27</t>
-  </si>
-  <si>
-    <t>testUser 28</t>
-  </si>
-  <si>
-    <t>testUser 29</t>
-  </si>
-  <si>
-    <t>testUser 30</t>
-  </si>
-  <si>
-    <t>testUser 31</t>
-  </si>
-  <si>
-    <t>testUser 32</t>
-  </si>
-  <si>
-    <t>testUser 33</t>
-  </si>
-  <si>
-    <t>testUser 34</t>
-  </si>
-  <si>
-    <t>testUser 35</t>
-  </si>
-  <si>
-    <t>testUser 36</t>
-  </si>
-  <si>
-    <t>testUser 37</t>
-  </si>
-  <si>
-    <t>testUser 38</t>
-  </si>
-  <si>
-    <t>testUser 39</t>
-  </si>
-  <si>
-    <t>testUser 40</t>
-  </si>
-  <si>
-    <t>testUser 41</t>
-  </si>
-  <si>
-    <t>testUser 42</t>
-  </si>
-  <si>
-    <t>testUser 43</t>
-  </si>
-  <si>
-    <t>testUser 44</t>
-  </si>
-  <si>
-    <t>testUser 45</t>
-  </si>
-  <si>
-    <t>testUser 46</t>
-  </si>
-  <si>
-    <t>testUser 47</t>
-  </si>
-  <si>
-    <t>testUser 48</t>
-  </si>
-  <si>
-    <t>testUser 49</t>
-  </si>
-  <si>
-    <t>testUser 50</t>
-  </si>
-  <si>
-    <t>testUser 51</t>
-  </si>
-  <si>
-    <t>testUser 52</t>
-  </si>
-  <si>
-    <t>testUser 53</t>
-  </si>
-  <si>
-    <t>testUser 54</t>
-  </si>
-  <si>
-    <t>testUser 55</t>
-  </si>
-  <si>
-    <t>testUser 56</t>
-  </si>
-  <si>
-    <t>testUser 57</t>
-  </si>
-  <si>
-    <t>testUser 58</t>
-  </si>
-  <si>
-    <t>testUser 59</t>
-  </si>
-  <si>
-    <t>testUser 60</t>
-  </si>
-  <si>
-    <t>testUser 61</t>
-  </si>
-  <si>
-    <t>testUser 62</t>
-  </si>
-  <si>
-    <t>testUser 63</t>
-  </si>
-  <si>
-    <t>testUser 64</t>
-  </si>
-  <si>
-    <t>testUser 65</t>
-  </si>
-  <si>
-    <t>testUser 66</t>
-  </si>
-  <si>
-    <t>testUser 67</t>
-  </si>
-  <si>
-    <t>testUser 68</t>
-  </si>
-  <si>
-    <t>testUser 69</t>
-  </si>
-  <si>
-    <t>testUser 70</t>
-  </si>
-  <si>
-    <t>testUser 71</t>
-  </si>
-  <si>
-    <t>testUser 72</t>
-  </si>
-  <si>
-    <t>testUser 73</t>
-  </si>
-  <si>
-    <t>testUser 74</t>
-  </si>
-  <si>
-    <t>testUser 75</t>
-  </si>
-  <si>
-    <t>testUser 76</t>
-  </si>
-  <si>
-    <t>testUser 77</t>
-  </si>
-  <si>
-    <t>testUser 78</t>
-  </si>
-  <si>
-    <t>testUser 79</t>
-  </si>
-  <si>
-    <t>testUser 80</t>
-  </si>
-  <si>
-    <t>testUser 81</t>
-  </si>
-  <si>
-    <t>testUser 82</t>
-  </si>
-  <si>
-    <t>testUser 83</t>
-  </si>
-  <si>
-    <t>testUser 84</t>
-  </si>
-  <si>
-    <t>testUser 85</t>
-  </si>
-  <si>
-    <t>testUser 86</t>
-  </si>
-  <si>
-    <t>testUser 87</t>
-  </si>
-  <si>
-    <t>testUser 88</t>
-  </si>
-  <si>
-    <t>testUser 89</t>
-  </si>
-  <si>
-    <t>testUser 90</t>
-  </si>
-  <si>
-    <t>testUser 91</t>
-  </si>
-  <si>
-    <t>testUser 92</t>
-  </si>
-  <si>
-    <t>testUser 93</t>
-  </si>
-  <si>
-    <t>testUser 94</t>
-  </si>
-  <si>
-    <t>testUser 95</t>
-  </si>
-  <si>
-    <t>testUser 96</t>
-  </si>
-  <si>
-    <t>testUser 97</t>
-  </si>
-  <si>
-    <t>testUser 98</t>
-  </si>
-  <si>
-    <t>testUser 99</t>
-  </si>
-  <si>
-    <t>testUser 100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1264,25 +965,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="14.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1302,7 +1003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1316,13 +1017,13 @@
         <v>123123</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>206</v>
+        <v>6</v>
       </c>
       <c r="F2" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1336,13 +1037,13 @@
         <v>123123</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>207</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1356,13 +1057,13 @@
         <v>123123</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>208</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1376,13 +1077,13 @@
         <v>123123</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>209</v>
+        <v>9</v>
       </c>
       <c r="F5" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1396,13 +1097,13 @@
         <v>123123</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1416,13 +1117,13 @@
         <v>123123</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>211</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1436,13 +1137,13 @@
         <v>123123</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="F8" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1456,13 +1157,13 @@
         <v>123123</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>213</v>
+        <v>13</v>
       </c>
       <c r="F9" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1476,13 +1177,13 @@
         <v>123123</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>214</v>
+        <v>14</v>
       </c>
       <c r="F10" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1496,13 +1197,13 @@
         <v>123123</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>215</v>
+        <v>15</v>
       </c>
       <c r="F11" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -1516,13 +1217,13 @@
         <v>123123</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>216</v>
+        <v>16</v>
       </c>
       <c r="F12" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1536,13 +1237,13 @@
         <v>123123</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>217</v>
+        <v>17</v>
       </c>
       <c r="F13" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1556,13 +1257,13 @@
         <v>123123</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>218</v>
+        <v>18</v>
       </c>
       <c r="F14" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -1576,13 +1277,13 @@
         <v>123123</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>219</v>
+        <v>19</v>
       </c>
       <c r="F15" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -1596,13 +1297,13 @@
         <v>123123</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>220</v>
+        <v>20</v>
       </c>
       <c r="F16" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -1616,13 +1317,13 @@
         <v>123123</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>221</v>
+        <v>21</v>
       </c>
       <c r="F17" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -1636,13 +1337,13 @@
         <v>123123</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>222</v>
+        <v>22</v>
       </c>
       <c r="F18" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
@@ -1656,13 +1357,13 @@
         <v>123123</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>223</v>
+        <v>23</v>
       </c>
       <c r="F19" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
@@ -1676,13 +1377,13 @@
         <v>123123</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>224</v>
+        <v>24</v>
       </c>
       <c r="F20" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
@@ -1696,13 +1397,13 @@
         <v>123123</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>225</v>
+        <v>25</v>
       </c>
       <c r="F21" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
@@ -1716,13 +1417,13 @@
         <v>123123</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>226</v>
+        <v>26</v>
       </c>
       <c r="F22" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
@@ -1736,13 +1437,13 @@
         <v>123123</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>227</v>
+        <v>27</v>
       </c>
       <c r="F23" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
@@ -1756,13 +1457,13 @@
         <v>123123</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>228</v>
+        <v>28</v>
       </c>
       <c r="F24" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
@@ -1776,13 +1477,13 @@
         <v>123123</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>229</v>
+        <v>29</v>
       </c>
       <c r="F25" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
@@ -1796,13 +1497,13 @@
         <v>123123</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>230</v>
+        <v>30</v>
       </c>
       <c r="F26" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
@@ -1816,13 +1517,13 @@
         <v>123123</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>231</v>
+        <v>31</v>
       </c>
       <c r="F27" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
@@ -1836,13 +1537,13 @@
         <v>123123</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>232</v>
+        <v>32</v>
       </c>
       <c r="F28" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
@@ -1856,13 +1557,13 @@
         <v>123123</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>233</v>
+        <v>33</v>
       </c>
       <c r="F29" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
@@ -1876,13 +1577,13 @@
         <v>123123</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>234</v>
+        <v>34</v>
       </c>
       <c r="F30" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>35</v>
       </c>
@@ -1896,13 +1597,13 @@
         <v>123123</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>235</v>
+        <v>35</v>
       </c>
       <c r="F31" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
@@ -1916,13 +1617,13 @@
         <v>123123</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>236</v>
+        <v>36</v>
       </c>
       <c r="F32" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
@@ -1936,13 +1637,13 @@
         <v>123123</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>237</v>
+        <v>37</v>
       </c>
       <c r="F33" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
@@ -1956,13 +1657,13 @@
         <v>123123</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>238</v>
+        <v>38</v>
       </c>
       <c r="F34" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
@@ -1976,13 +1677,13 @@
         <v>123123</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>239</v>
+        <v>39</v>
       </c>
       <c r="F35" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
@@ -1996,13 +1697,13 @@
         <v>123123</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="F36" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>41</v>
       </c>
@@ -2016,13 +1717,13 @@
         <v>123123</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>241</v>
+        <v>41</v>
       </c>
       <c r="F37" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>42</v>
       </c>
@@ -2036,13 +1737,13 @@
         <v>123123</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>242</v>
+        <v>42</v>
       </c>
       <c r="F38" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,13 +1757,13 @@
         <v>123123</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>243</v>
+        <v>43</v>
       </c>
       <c r="F39" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>44</v>
       </c>
@@ -2076,13 +1777,13 @@
         <v>123123</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>244</v>
+        <v>44</v>
       </c>
       <c r="F40" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>45</v>
       </c>
@@ -2096,13 +1797,13 @@
         <v>123123</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>245</v>
+        <v>45</v>
       </c>
       <c r="F41" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
@@ -2116,13 +1817,13 @@
         <v>123123</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>246</v>
+        <v>46</v>
       </c>
       <c r="F42" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>47</v>
       </c>
@@ -2136,13 +1837,13 @@
         <v>123123</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>247</v>
+        <v>47</v>
       </c>
       <c r="F43" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>48</v>
       </c>
@@ -2156,13 +1857,13 @@
         <v>123123</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>248</v>
+        <v>48</v>
       </c>
       <c r="F44" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>49</v>
       </c>
@@ -2176,13 +1877,13 @@
         <v>123123</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>249</v>
+        <v>49</v>
       </c>
       <c r="F45" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>50</v>
       </c>
@@ -2196,13 +1897,13 @@
         <v>123123</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="F46" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>51</v>
       </c>
@@ -2216,13 +1917,13 @@
         <v>123123</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>251</v>
+        <v>51</v>
       </c>
       <c r="F47" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>52</v>
       </c>
@@ -2236,13 +1937,13 @@
         <v>123123</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>252</v>
+        <v>52</v>
       </c>
       <c r="F48" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>53</v>
       </c>
@@ -2256,13 +1957,13 @@
         <v>123123</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>253</v>
+        <v>53</v>
       </c>
       <c r="F49" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>54</v>
       </c>
@@ -2276,13 +1977,13 @@
         <v>123123</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>254</v>
+        <v>54</v>
       </c>
       <c r="F50" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>55</v>
       </c>
@@ -2296,13 +1997,13 @@
         <v>123123</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>255</v>
+        <v>55</v>
       </c>
       <c r="F51" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>56</v>
       </c>
@@ -2316,13 +2017,13 @@
         <v>123123</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>256</v>
+        <v>56</v>
       </c>
       <c r="F52" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>57</v>
       </c>
@@ -2336,13 +2037,13 @@
         <v>123123</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>257</v>
+        <v>57</v>
       </c>
       <c r="F53" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>58</v>
       </c>
@@ -2356,13 +2057,13 @@
         <v>123123</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>258</v>
+        <v>58</v>
       </c>
       <c r="F54" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>59</v>
       </c>
@@ -2376,13 +2077,13 @@
         <v>123123</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>259</v>
+        <v>59</v>
       </c>
       <c r="F55" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>60</v>
       </c>
@@ -2396,13 +2097,13 @@
         <v>123123</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>260</v>
+        <v>60</v>
       </c>
       <c r="F56" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>61</v>
       </c>
@@ -2416,13 +2117,13 @@
         <v>123123</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>261</v>
+        <v>61</v>
       </c>
       <c r="F57" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>62</v>
       </c>
@@ -2436,13 +2137,13 @@
         <v>123123</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>262</v>
+        <v>62</v>
       </c>
       <c r="F58" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>63</v>
       </c>
@@ -2456,13 +2157,13 @@
         <v>123123</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>263</v>
+        <v>63</v>
       </c>
       <c r="F59" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>64</v>
       </c>
@@ -2476,13 +2177,13 @@
         <v>123123</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>264</v>
+        <v>64</v>
       </c>
       <c r="F60" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>65</v>
       </c>
@@ -2496,13 +2197,13 @@
         <v>123123</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>265</v>
+        <v>65</v>
       </c>
       <c r="F61" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>66</v>
       </c>
@@ -2516,13 +2217,13 @@
         <v>123123</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>266</v>
+        <v>66</v>
       </c>
       <c r="F62" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>67</v>
       </c>
@@ -2536,13 +2237,13 @@
         <v>123123</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>267</v>
+        <v>67</v>
       </c>
       <c r="F63" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>68</v>
       </c>
@@ -2556,13 +2257,13 @@
         <v>123123</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>268</v>
+        <v>68</v>
       </c>
       <c r="F64" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>69</v>
       </c>
@@ -2576,13 +2277,13 @@
         <v>123123</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>269</v>
+        <v>69</v>
       </c>
       <c r="F65" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>70</v>
       </c>
@@ -2596,13 +2297,13 @@
         <v>123123</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>270</v>
+        <v>70</v>
       </c>
       <c r="F66" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>71</v>
       </c>
@@ -2616,13 +2317,13 @@
         <v>123123</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>271</v>
+        <v>71</v>
       </c>
       <c r="F67" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>72</v>
       </c>
@@ -2636,13 +2337,13 @@
         <v>123123</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>272</v>
+        <v>72</v>
       </c>
       <c r="F68" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>73</v>
       </c>
@@ -2656,13 +2357,13 @@
         <v>123123</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>273</v>
+        <v>73</v>
       </c>
       <c r="F69" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>74</v>
       </c>
@@ -2676,13 +2377,13 @@
         <v>123123</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>274</v>
+        <v>74</v>
       </c>
       <c r="F70" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>75</v>
       </c>
@@ -2696,13 +2397,13 @@
         <v>123123</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>275</v>
+        <v>75</v>
       </c>
       <c r="F71" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>76</v>
       </c>
@@ -2716,13 +2417,13 @@
         <v>123123</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>276</v>
+        <v>76</v>
       </c>
       <c r="F72" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>77</v>
       </c>
@@ -2736,13 +2437,13 @@
         <v>123123</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>277</v>
+        <v>77</v>
       </c>
       <c r="F73" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>78</v>
       </c>
@@ -2756,13 +2457,13 @@
         <v>123123</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>278</v>
+        <v>78</v>
       </c>
       <c r="F74" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>79</v>
       </c>
@@ -2776,13 +2477,13 @@
         <v>123123</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>279</v>
+        <v>79</v>
       </c>
       <c r="F75" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>80</v>
       </c>
@@ -2796,13 +2497,13 @@
         <v>123123</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="F76" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>81</v>
       </c>
@@ -2816,13 +2517,13 @@
         <v>123123</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>281</v>
+        <v>81</v>
       </c>
       <c r="F77" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>82</v>
       </c>
@@ -2836,13 +2537,13 @@
         <v>123123</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>282</v>
+        <v>82</v>
       </c>
       <c r="F78" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>83</v>
       </c>
@@ -2856,13 +2557,13 @@
         <v>123123</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>283</v>
+        <v>83</v>
       </c>
       <c r="F79" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>84</v>
       </c>
@@ -2876,13 +2577,13 @@
         <v>123123</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>284</v>
+        <v>84</v>
       </c>
       <c r="F80" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>85</v>
       </c>
@@ -2896,13 +2597,13 @@
         <v>123123</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>285</v>
+        <v>85</v>
       </c>
       <c r="F81" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>86</v>
       </c>
@@ -2916,13 +2617,13 @@
         <v>123123</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>286</v>
+        <v>86</v>
       </c>
       <c r="F82" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>87</v>
       </c>
@@ -2936,13 +2637,13 @@
         <v>123123</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>287</v>
+        <v>87</v>
       </c>
       <c r="F83" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>88</v>
       </c>
@@ -2956,13 +2657,13 @@
         <v>123123</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>288</v>
+        <v>88</v>
       </c>
       <c r="F84" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>89</v>
       </c>
@@ -2976,13 +2677,13 @@
         <v>123123</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>289</v>
+        <v>89</v>
       </c>
       <c r="F85" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>90</v>
       </c>
@@ -2996,13 +2697,13 @@
         <v>123123</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>290</v>
+        <v>90</v>
       </c>
       <c r="F86" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>91</v>
       </c>
@@ -3016,13 +2717,13 @@
         <v>123123</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>291</v>
+        <v>91</v>
       </c>
       <c r="F87" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>92</v>
       </c>
@@ -3036,13 +2737,13 @@
         <v>123123</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>292</v>
+        <v>92</v>
       </c>
       <c r="F88" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>93</v>
       </c>
@@ -3056,13 +2757,13 @@
         <v>123123</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>293</v>
+        <v>93</v>
       </c>
       <c r="F89" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>94</v>
       </c>
@@ -3076,13 +2777,13 @@
         <v>123123</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>294</v>
+        <v>94</v>
       </c>
       <c r="F90" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>95</v>
       </c>
@@ -3096,13 +2797,13 @@
         <v>123123</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>295</v>
+        <v>95</v>
       </c>
       <c r="F91" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>96</v>
       </c>
@@ -3116,13 +2817,13 @@
         <v>123123</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>296</v>
+        <v>96</v>
       </c>
       <c r="F92" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>97</v>
       </c>
@@ -3136,13 +2837,13 @@
         <v>123123</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>297</v>
+        <v>97</v>
       </c>
       <c r="F93" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>98</v>
       </c>
@@ -3156,13 +2857,13 @@
         <v>123123</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>298</v>
+        <v>98</v>
       </c>
       <c r="F94" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>99</v>
       </c>
@@ -3176,13 +2877,13 @@
         <v>123123</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>299</v>
+        <v>99</v>
       </c>
       <c r="F95" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>100</v>
       </c>
@@ -3196,13 +2897,13 @@
         <v>123123</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F96" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>101</v>
       </c>
@@ -3216,13 +2917,13 @@
         <v>123123</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>301</v>
+        <v>101</v>
       </c>
       <c r="F97" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>102</v>
       </c>
@@ -3236,13 +2937,13 @@
         <v>123123</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>302</v>
+        <v>102</v>
       </c>
       <c r="F98" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>103</v>
       </c>
@@ -3256,13 +2957,13 @@
         <v>123123</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>303</v>
+        <v>103</v>
       </c>
       <c r="F99" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>104</v>
       </c>
@@ -3276,13 +2977,13 @@
         <v>123123</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>304</v>
+        <v>104</v>
       </c>
       <c r="F100" s="1">
         <v>123123</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>105</v>
       </c>
@@ -3296,7 +2997,7 @@
         <v>123123</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>305</v>
+        <v>105</v>
       </c>
       <c r="F101" s="1">
         <v>123123</v>
@@ -3304,5 +3005,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>